--- a/soberano/test_cases/costcenter_record_test_cases.xlsx
+++ b/soberano/test_cases/costcenter_record_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -31,10 +31,10 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Input cost center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output cost center</t>
+    <t xml:space="preserve">Input warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output warehouse</t>
   </si>
   <si>
     <t xml:space="preserve">test constrained (for input validation) form components</t>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">User1 tries to record another cost center with the same name and fails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User1 tries to record another cost center with the same code and fails</t>
   </si>
   <si>
     <t xml:space="preserve">check cc1 data is correctly shown in details panel</t>
@@ -183,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -214,11 +211,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
@@ -266,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,11 +291,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,15 +314,15 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.96"/>
@@ -414,7 +402,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -431,7 +419,7 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -448,7 +436,7 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -465,7 +453,7 @@
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -482,7 +470,7 @@
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -499,7 +487,7 @@
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -516,7 +504,7 @@
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -533,7 +521,7 @@
       <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -550,7 +538,7 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -567,7 +555,7 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -584,7 +572,7 @@
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -601,7 +589,7 @@
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -618,7 +606,7 @@
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -635,7 +623,7 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -652,7 +640,7 @@
       <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -669,7 +657,7 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -686,7 +674,7 @@
       <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -698,12 +686,12 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -715,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +711,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +735,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +743,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +775,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
